--- a/research_seminar_problems.xlsx
+++ b/research_seminar_problems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLect\OneDrive\Рабочий стол\HSE\Research Seminar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DLect\OneDrive\Рабочий стол\HSE\Research Seminar\RS-Solver-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A214C44-4272-4A5A-852C-868167008CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC57641-B983-4E6C-B54D-ABEE36E5F06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1695" windowWidth="21795" windowHeight="13095" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="1695" windowWidth="21795" windowHeight="13095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="индекс хирша" sheetId="1" r:id="rId1"/>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB191ABF-0E4C-4632-B01E-E63E37EE3490}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5E3D7-4799-41FB-AED1-3AA90085CD1F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1281,7 +1281,7 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
       <c r="B1" s="11" t="s">
         <v>21</v>
@@ -1289,9 +1289,8 @@
       <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
@@ -1301,9 +1300,8 @@
       <c r="C2" s="14">
         <v>80</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
@@ -1313,9 +1311,8 @@
       <c r="C3" s="14">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
@@ -1325,9 +1322,8 @@
       <c r="C4" s="17">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
     </row>
   </sheetData>
